--- a/predictions/single/RandomForestRegressor/Enfermedad renal terminal.xlsx
+++ b/predictions/single/RandomForestRegressor/Enfermedad renal terminal.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05674866275648918</v>
+        <v>0.05583808999829287</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9992316581361154</v>
+        <v>0.9992439867291826</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/predictions/single/RandomForestRegressor/Enfermedad renal terminal.xlsx
+++ b/predictions/single/RandomForestRegressor/Enfermedad renal terminal.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05583808999829287</v>
+        <v>0.05710533068436789</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9992439867291826</v>
+        <v>0.999226829072536</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/predictions/single/RandomForestRegressor/Enfermedad renal terminal.xlsx
+++ b/predictions/single/RandomForestRegressor/Enfermedad renal terminal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Tipo</t>
         </is>
       </c>
@@ -462,12 +467,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05710533068436789</v>
+        <v>0.05688602116888641</v>
       </c>
       <c r="C2" t="n">
-        <v>0.999226829072536</v>
-      </c>
-      <c r="D2" t="inlineStr">
+        <v>0.9992297983880002</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1912640313995153</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>single</t>
         </is>

--- a/predictions/single/RandomForestRegressor/Enfermedad renal terminal.xlsx
+++ b/predictions/single/RandomForestRegressor/Enfermedad renal terminal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Tipo</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Modelo</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -467,17 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05688602116888641</v>
+        <v>0.0557715238619978</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9992297983880002</v>
+        <v>0.9992448879935781</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1912640313995153</v>
+        <v>0.1901453129850954</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>single</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('model', RandomForestRegressor(max_depth=5))])</t>
         </is>
       </c>
     </row>

--- a/predictions/single/RandomForestRegressor/Enfermedad renal terminal.xlsx
+++ b/predictions/single/RandomForestRegressor/Enfermedad renal terminal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,16 @@
           <t>Modelo</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Elapsed Time</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CPU</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -472,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0557715238619978</v>
+        <v>0.0564692933138092</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9992448879935781</v>
+        <v>0.99923544062592</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1901453129850954</v>
+        <v>0.1915777482460909</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -487,8 +497,15 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('model', RandomForestRegressor(max_depth=5))])</t>
-        </is>
+          <t>Pipeline(steps=[('model',
+                 RandomForestRegressor(max_depth=5, n_estimators=150))])</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1289622459000384</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.991</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/single/RandomForestRegressor/Enfermedad renal terminal.xlsx
+++ b/predictions/single/RandomForestRegressor/Enfermedad renal terminal.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0564692933138092</v>
+        <v>0.05613244183291798</v>
       </c>
       <c r="C2" t="n">
-        <v>0.99923544062592</v>
+        <v>0.9992400013870394</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1915777482460909</v>
+        <v>0.1889595956676878</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -497,15 +497,14 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('model',
-                 RandomForestRegressor(max_depth=5, n_estimators=150))])</t>
+          <t>Pipeline(steps=[('model', RandomForestRegressor(max_depth=5))])</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.1289622459000384</v>
+        <v>0.1297138430333386</v>
       </c>
       <c r="H2" t="n">
-        <v>0.991</v>
+        <v>0.9790000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/single/RandomForestRegressor/Enfermedad renal terminal.xlsx
+++ b/predictions/single/RandomForestRegressor/Enfermedad renal terminal.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05613244183291798</v>
+        <v>0.05636357315966059</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9992400013870394</v>
+        <v>0.9992368720115482</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1889595956676878</v>
+        <v>0.1914382525850619</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -497,14 +497,15 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('model', RandomForestRegressor(max_depth=5))])</t>
+          <t>Pipeline(steps=[('model',
+                 RandomForestRegressor(max_depth=5, n_estimators=150))])</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.1297138430333386</v>
+        <v>0.124317388383497</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9790000000000001</v>
+        <v>0.991</v>
       </c>
     </row>
   </sheetData>
